--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/GoreHaulSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/GoreHaulSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E9E2C-4699-4869-9817-ADAA6A82BF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4E16DB-D5D0-4A39-A5DE-6D184F8021AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="7875" xr2:uid="{CF8620D6-7292-4E8C-8303-344569A6BA25}"/>
   </bookViews>
@@ -83,15 +83,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>VomitLaser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcidVomit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Swip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnDownAttack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlamAttack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -482,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB69FE2B-786B-4124-B9AC-BEE01F67C4A1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -560,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -580,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -600,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1.5</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/GoreHaulSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/GoreHaulSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4E16DB-D5D0-4A39-A5DE-6D184F8021AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693DC232-A7ED-4FE6-8E2A-3F607B0F3E75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="7875" xr2:uid="{CF8620D6-7292-4E8C-8303-344569A6BA25}"/>
   </bookViews>
@@ -482,7 +482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB69FE2B-786B-4124-B9AC-BEE01F67C4A1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -567,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -587,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -607,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>1</v>
